--- a/材料表.xlsx
+++ b/材料表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="145">
   <si>
     <t>中文名</t>
   </si>
@@ -270,94 +270,184 @@
     <t>wool</t>
   </si>
   <si>
+    <t>一级乌沉</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/Black sunken.png</t>
   </si>
   <si>
+    <t>二级乌沉</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/Black sunken2.png</t>
   </si>
   <si>
+    <t>三级乌沉</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/Black sunken3.png</t>
   </si>
   <si>
+    <t>一级梧桐</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/Chinese parasol.png</t>
   </si>
   <si>
+    <t>二级梧桐</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/Chinese parasol2.png</t>
   </si>
   <si>
+    <t>三级梧桐</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/Chinese parasol3.png</t>
   </si>
   <si>
+    <t>一级金刚</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/Corundum.png</t>
   </si>
   <si>
+    <t>二级金刚</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/Corundum2.png</t>
   </si>
   <si>
+    <t>三级金刚</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/Corundum3.png</t>
   </si>
   <si>
+    <t>一级杉木</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/fir wood.png</t>
   </si>
   <si>
+    <t>二级杉木</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/fir wood2.png</t>
   </si>
   <si>
+    <t>三级杉木</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/fir wood3.png</t>
   </si>
   <si>
+    <t>一级松木</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/pine.png</t>
   </si>
   <si>
+    <t>二级松木</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/pine2.png</t>
   </si>
   <si>
+    <t>三级松木</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/wood/pine3.png</t>
   </si>
   <si>
     <t>stone</t>
   </si>
   <si>
+    <t>一级铜</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/copper.png</t>
   </si>
   <si>
+    <t>二级铜</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/copper2.png</t>
   </si>
   <si>
+    <t>三级铜</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/copper3.png</t>
   </si>
   <si>
+    <t>一级金</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/gold.png</t>
   </si>
   <si>
+    <t>二级金</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/gold2.png</t>
   </si>
   <si>
+    <t>三级金</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/gold3.png</t>
   </si>
   <si>
+    <t>一级银</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/iron.png</t>
   </si>
   <si>
+    <t>二级银</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/iron2.png</t>
   </si>
   <si>
+    <t>三级银</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/iron3.png</t>
   </si>
   <si>
+    <t>一级赤金</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/Red gold.png</t>
   </si>
   <si>
+    <t>二级赤金</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/Red gold2.png</t>
   </si>
   <si>
+    <t>三级赤金</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/Red gold3.png</t>
   </si>
   <si>
+    <t>一级钛</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/titanium.png</t>
   </si>
   <si>
+    <t>二级钛</t>
+  </si>
+  <si>
     <t>https://img.wolftown.games/metarial/stone/titanium2.png</t>
+  </si>
+  <si>
+    <t>三级钛</t>
   </si>
   <si>
     <t>https://img.wolftown.games/metarial/stone/titanium3.png</t>
@@ -373,7 +463,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,14 +472,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Consolas"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -539,12 +636,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -733,12 +842,225 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="24">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5A5A5A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5A5A5A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5A5A5A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5A5A5A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5A5A5A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5A5A5A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5A5A5A"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5A5A5A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5A5A5A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5A5A5A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -844,51 +1166,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,106 +1217,205 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1350,1351 +1768,1646 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19:G50"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="19.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="23.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="7.33333333333333" customWidth="1"/>
-    <col min="7" max="7" width="28.4444444444444" customWidth="1"/>
-    <col min="8" max="9" width="24.4444444444444" customWidth="1"/>
-    <col min="12" max="12" width="31.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="13.5277777777778" customWidth="1"/>
+    <col min="2" max="3" width="24.4166666666667" customWidth="1"/>
+    <col min="4" max="5" width="50.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="8.34259259259259" customWidth="1"/>
+    <col min="7" max="7" width="28.712962962963" customWidth="1"/>
+    <col min="8" max="8" width="22.5648148148148" customWidth="1"/>
+    <col min="9" max="9" width="17.2314814814815" customWidth="1"/>
+    <col min="10" max="10" width="9.08333333333333" customWidth="1"/>
+    <col min="11" max="11" width="7.23148148148148" customWidth="1"/>
+    <col min="12" max="12" width="50.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="100.8" spans="1:12">
-      <c r="A2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="7" t="str">
         <f>"#"&amp;B2&amp;"#"&amp;":{ description: "&amp;"#"&amp;C2&amp;"#,image: "&amp;"#"&amp;D2&amp;"#,},"</f>
         <v>#artillery#:{ description: #artillery#,image: #https://img.wolftown.games/weapon/artillery.png#,},</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <v>920</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="9" t="str">
         <f>"#"&amp;B2&amp;"#:"&amp;F2&amp;","</f>
         <v>#artillery#:920,</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="8">
         <v>2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="8">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="str">
+      <c r="L2" s="28" t="str">
         <f>"#"&amp;B2&amp;"#"&amp;":{name:#"&amp;B2&amp;"#, description: "&amp;"#"&amp;C2&amp;"#,ingredients: [{ item:#"&amp;H2&amp;"#,amount: new Decimal("&amp;J2&amp;"),
       },{ item:#"&amp;I2&amp;"#,amount: new Decimal("&amp;K2&amp;"),},], },"</f>
         <v>#artillery#:{name:#artillery#, description: #artillery#,ingredients: [{ item:#Black sunken#,amount: new Decimal(2),
       },{ item:#copper#,amount: new Decimal(4),},], },</v>
       </c>
     </row>
-    <row r="3" ht="129.6" spans="1:12">
-      <c r="A3" t="s">
+    <row r="3" customHeight="1" spans="1:12">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="13" t="str">
         <f t="shared" ref="E3:E16" si="0">"#"&amp;B3&amp;"#"&amp;":{ description: "&amp;"#"&amp;C3&amp;"#,image: "&amp;"#"&amp;D3&amp;"#,},"</f>
         <v>#artillery2#:{ description: #artillery2#,image: #https://img.wolftown.games/weapon/artillery2.png#,},</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="14">
         <v>921</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:G16" si="1">"#"&amp;B3&amp;"#:"&amp;F3&amp;","</f>
         <v>#artillery2#:921,</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="14">
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="14">
         <v>5</v>
       </c>
-      <c r="L3" s="2" t="str">
+      <c r="L3" s="29" t="str">
         <f t="shared" ref="L3:L16" si="2">"#"&amp;B3&amp;"#"&amp;":{name:#"&amp;B3&amp;"#, description: "&amp;"#"&amp;C3&amp;"#,ingredients: [{ item:#"&amp;H3&amp;"#,amount: new Decimal("&amp;J3&amp;"),
       },{ item:#"&amp;I3&amp;"#,amount: new Decimal("&amp;K3&amp;"),},], },"</f>
         <v>#artillery2#:{name:#artillery2#, description: #artillery2#,ingredients: [{ item:#Black sunken2#,amount: new Decimal(3),
       },{ item:#copper2#,amount: new Decimal(5),},], },</v>
       </c>
     </row>
-    <row r="4" ht="129.6" spans="1:12">
-      <c r="A4" t="s">
+    <row r="4" customHeight="1" spans="1:12">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="13" t="str">
         <f t="shared" si="0"/>
         <v>#artillery3#:{ description: #artillery3#,image: #https://img.wolftown.games/weapon/artillery3.png#,},</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="14">
         <v>922</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="15" t="str">
         <f t="shared" si="1"/>
         <v>#artillery3#:922,</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="14">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="14">
         <v>6</v>
       </c>
-      <c r="L4" s="2" t="str">
+      <c r="L4" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#artillery3#:{name:#artillery3#, description: #artillery3#,ingredients: [{ item:#Black sunken3#,amount: new Decimal(4),
       },{ item:#copper3#,amount: new Decimal(6),},], },</v>
       </c>
     </row>
-    <row r="5" ht="100.8" spans="1:12">
-      <c r="A5" t="s">
+    <row r="5" customHeight="1" spans="1:12">
+      <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>#bartizan#:{ description: #bartizan#,image: #https://img.wolftown.games/weapon/bartizan.png#,},</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="14">
         <v>923</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" s="15" t="str">
         <f t="shared" si="1"/>
         <v>#bartizan#:923,</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="14">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="14">
         <v>7</v>
       </c>
-      <c r="L5" s="2" t="str">
+      <c r="L5" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#bartizan#:{name:#bartizan#, description: #bartizan#,ingredients: [{ item:#Chinese parasol#,amount: new Decimal(5),
       },{ item:#gold#,amount: new Decimal(7),},], },</v>
       </c>
     </row>
-    <row r="6" ht="100.8" spans="1:12">
-      <c r="A6" t="s">
+    <row r="6" customHeight="1" spans="1:12">
+      <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>#bartizan2#:{ description: #bartizan2#,image: #https://img.wolftown.games/weapon/bartizan2.png#,},</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="14">
         <v>924</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" s="15" t="str">
         <f t="shared" si="1"/>
         <v>#bartizan2#:924,</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="14">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="14">
         <v>8</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="L6" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#bartizan2#:{name:#bartizan2#, description: #bartizan2#,ingredients: [{ item:#Chinese parasol2#,amount: new Decimal(6),
       },{ item:#gold2#,amount: new Decimal(8),},], },</v>
       </c>
     </row>
-    <row r="7" ht="100.8" spans="1:12">
-      <c r="A7" t="s">
+    <row r="7" customHeight="1" spans="1:12">
+      <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>#bartizan3#:{ description: #bartizan3#,image: #https://img.wolftown.games/weapon/bartizan3.png#,},</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="14">
         <v>925</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="15" t="str">
         <f t="shared" si="1"/>
         <v>#bartizan3#:925,</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="14">
         <v>7</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="14">
         <v>9</v>
       </c>
-      <c r="L7" s="2" t="str">
+      <c r="L7" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#bartizan3#:{name:#bartizan3#, description: #bartizan3#,ingredients: [{ item:#Chinese parasol3#,amount: new Decimal(7),
       },{ item:#gold3#,amount: new Decimal(9),},], },</v>
       </c>
     </row>
-    <row r="8" ht="100.8" spans="1:12">
-      <c r="A8" t="s">
+    <row r="8" customHeight="1" spans="1:12">
+      <c r="A8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>#Catapult#:{ description: #Catapult#,image: #https://img.wolftown.games/weapon/Catapult.png#,},</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="14">
         <v>926</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" s="15" t="str">
         <f t="shared" si="1"/>
         <v>#Catapult#:926,</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="14">
         <v>8</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="14">
         <v>4</v>
       </c>
-      <c r="L8" s="2" t="str">
+      <c r="L8" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#Catapult#:{name:#Catapult#, description: #Catapult#,ingredients: [{ item:#Corundum#,amount: new Decimal(8),
       },{ item:#iron#,amount: new Decimal(4),},], },</v>
       </c>
     </row>
-    <row r="9" ht="100.8" spans="1:12">
-      <c r="A9" t="s">
+    <row r="9" customHeight="1" spans="1:12">
+      <c r="A9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>#Catapult2#:{ description: #Catapult2#,image: #https://img.wolftown.games/weapon/Catapult2.png#,},</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="14">
         <v>927</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>#Catapult2#:927,</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="14">
         <v>9</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="14">
         <v>5</v>
       </c>
-      <c r="L9" s="2" t="str">
+      <c r="L9" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#Catapult2#:{name:#Catapult2#, description: #Catapult2#,ingredients: [{ item:#Corundum2#,amount: new Decimal(9),
       },{ item:#iron2#,amount: new Decimal(5),},], },</v>
       </c>
     </row>
-    <row r="10" ht="100.8" spans="1:12">
-      <c r="A10" t="s">
+    <row r="10" customHeight="1" spans="1:12">
+      <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>#Catapult3#:{ description: #Catapult3#,image: #https://img.wolftown.games/weapon/Catapult3.png#,},</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="14">
         <v>928</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="15" t="str">
         <f t="shared" si="1"/>
         <v>#Catapult3#:928,</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="14">
         <v>10</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="14">
         <v>6</v>
       </c>
-      <c r="L10" s="2" t="str">
+      <c r="L10" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#Catapult3#:{name:#Catapult3#, description: #Catapult3#,ingredients: [{ item:#Corundum3#,amount: new Decimal(10),
       },{ item:#iron3#,amount: new Decimal(6),},], },</v>
       </c>
     </row>
-    <row r="11" ht="115.2" spans="1:12">
-      <c r="A11" t="s">
+    <row r="11" customHeight="1" spans="1:12">
+      <c r="A11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>#Cyclone wheel car#:{ description: #Cyclone wheel car#,image: #https://img.wolftown.games/weapon/Cyclone wheel car.png#,},</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="14">
         <v>929</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11" s="15" t="str">
         <f t="shared" si="1"/>
         <v>#Cyclone wheel car#:929,</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="14">
         <v>11</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="14">
         <v>7</v>
       </c>
-      <c r="L11" s="2" t="str">
+      <c r="L11" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#Cyclone wheel car#:{name:#Cyclone wheel car#, description: #Cyclone wheel car#,ingredients: [{ item:#fir wood#,amount: new Decimal(11),
       },{ item:#Red gold#,amount: new Decimal(7),},], },</v>
       </c>
     </row>
-    <row r="12" ht="129.6" spans="1:12">
-      <c r="A12" t="s">
+    <row r="12" customHeight="1" spans="1:12">
+      <c r="A12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>#Cyclone wheel car2#:{ description: #Cyclone wheel car2#,image: #https://img.wolftown.games/weapon/Cyclone wheel car2.png#,},</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="14">
         <v>930</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="15" t="str">
         <f t="shared" si="1"/>
         <v>#Cyclone wheel car2#:930,</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="14">
         <v>12</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="14">
         <v>8</v>
       </c>
-      <c r="L12" s="2" t="str">
+      <c r="L12" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#Cyclone wheel car2#:{name:#Cyclone wheel car2#, description: #Cyclone wheel car2#,ingredients: [{ item:#fir wood2#,amount: new Decimal(12),
       },{ item:#Red gold2#,amount: new Decimal(8),},], },</v>
       </c>
     </row>
-    <row r="13" ht="129.6" spans="1:12">
-      <c r="A13" t="s">
+    <row r="13" customHeight="1" spans="1:12">
+      <c r="A13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>#Cyclone wheel car3#:{ description: #Cyclone wheel car3#,image: #https://img.wolftown.games/weapon/Cyclone wheel car3.png#,},</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="14">
         <v>931</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13" s="15" t="str">
         <f t="shared" si="1"/>
         <v>#Cyclone wheel car3#:931,</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="14">
         <v>13</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="14">
         <v>9</v>
       </c>
-      <c r="L13" s="2" t="str">
+      <c r="L13" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#Cyclone wheel car3#:{name:#Cyclone wheel car3#, description: #Cyclone wheel car3#,ingredients: [{ item:#fir wood3#,amount: new Decimal(13),
       },{ item:#Red gold3#,amount: new Decimal(9),},], },</v>
       </c>
     </row>
-    <row r="14" ht="115.2" spans="1:12">
-      <c r="A14" t="s">
+    <row r="14" customHeight="1" spans="1:12">
+      <c r="A14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>#Rush Car#:{ description: #Rush Car#,image: #https://img.wolftown.games/weapon/Rush Car.png#,},</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="14">
         <v>932</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G14" s="15" t="str">
         <f t="shared" si="1"/>
         <v>#Rush Car#:932,</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="14">
         <v>14</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="14">
         <v>10</v>
       </c>
-      <c r="L14" s="2" t="str">
+      <c r="L14" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#Rush Car#:{name:#Rush Car#, description: #Rush Car#,ingredients: [{ item:#pine#,amount: new Decimal(14),
       },{ item:#titanium#,amount: new Decimal(10),},], },</v>
       </c>
     </row>
-    <row r="15" ht="115.2" spans="1:12">
-      <c r="A15" t="s">
+    <row r="15" customHeight="1" spans="1:12">
+      <c r="A15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>#Rush Car2#:{ description: #Rush Car2#,image: #https://img.wolftown.games/weapon/Rush Car2.png#,},</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="14">
         <v>933</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15" s="15" t="str">
         <f t="shared" si="1"/>
         <v>#Rush Car2#:933,</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="14">
         <v>15</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="14">
         <v>11</v>
       </c>
-      <c r="L15" s="2" t="str">
+      <c r="L15" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#Rush Car2#:{name:#Rush Car2#, description: #Rush Car2#,ingredients: [{ item:#pine2#,amount: new Decimal(15),
       },{ item:#titanium2#,amount: new Decimal(11),},], },</v>
       </c>
     </row>
-    <row r="16" ht="115.2" spans="1:12">
-      <c r="A16" t="s">
+    <row r="16" customHeight="1" spans="1:12">
+      <c r="A16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>#Rush Car3#:{ description: #Rush Car3#,image: #https://img.wolftown.games/weapon/Rush Car3.png#,},</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="14">
         <v>934</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16" s="15" t="str">
         <f t="shared" si="1"/>
         <v>#Rush Car3#:934,</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="14">
         <v>16</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="14">
         <v>12</v>
       </c>
-      <c r="L16" s="2" t="str">
+      <c r="L16" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#Rush Car3#:{name:#Rush Car3#, description: #Rush Car3#,ingredients: [{ item:#pine3#,amount: new Decimal(16),
       },{ item:#titanium3#,amount: new Decimal(12),},], },</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="17" customHeight="1" spans="1:12">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:12">
+      <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" ht="57.6" spans="2:7">
-      <c r="B19" s="1" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:12">
+      <c r="A19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="str">
+      <c r="D19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="7" t="str">
         <f t="shared" ref="E17:E50" si="3">"#"&amp;B19&amp;"#"&amp;":{ description: "&amp;"#"&amp;C19&amp;"#,image: "&amp;"#"&amp;D19&amp;"#,},"</f>
         <v>#Black sunken#:{ description: #Black sunken#,image: #https://img.wolftown.games/metarial/wood/Black sunken.png#,},</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <v>935</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19" s="9" t="str">
         <f t="shared" ref="G17:G50" si="4">"#"&amp;B19&amp;"#:"&amp;F19&amp;","</f>
         <v>#Black sunken#:935,</v>
       </c>
-    </row>
-    <row r="20" ht="57.6" spans="2:7">
-      <c r="B20" s="1" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:12">
+      <c r="A20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" t="str">
+      <c r="D20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#Black sunken2#:{ description: #Black sunken2#,image: #https://img.wolftown.games/metarial/wood/Black sunken2.png#,},</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="14">
         <v>936</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#Black sunken2#:936,</v>
       </c>
-    </row>
-    <row r="21" ht="57.6" spans="2:7">
-      <c r="B21" s="1" t="s">
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:12">
+      <c r="A21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" t="str">
+      <c r="D21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#Black sunken3#:{ description: #Black sunken3#,image: #https://img.wolftown.games/metarial/wood/Black sunken3.png#,},</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="14">
         <v>937</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G21" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#Black sunken3#:937,</v>
       </c>
-    </row>
-    <row r="22" ht="57.6" spans="2:7">
-      <c r="B22" s="1" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:12">
+      <c r="A22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" t="str">
+      <c r="D22" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#Chinese parasol#:{ description: #Chinese parasol#,image: #https://img.wolftown.games/metarial/wood/Chinese parasol.png#,},</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="14">
         <v>938</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#Chinese parasol#:938,</v>
       </c>
-    </row>
-    <row r="23" ht="57.6" spans="2:7">
-      <c r="B23" s="1" t="s">
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="32"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:12">
+      <c r="A23" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" t="str">
+      <c r="D23" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#Chinese parasol2#:{ description: #Chinese parasol2#,image: #https://img.wolftown.games/metarial/wood/Chinese parasol2.png#,},</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="14">
         <v>939</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G23" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#Chinese parasol2#:939,</v>
       </c>
-    </row>
-    <row r="24" ht="57.6" spans="2:7">
-      <c r="B24" s="1" t="s">
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="32"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:12">
+      <c r="A24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" t="str">
+      <c r="D24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#Chinese parasol3#:{ description: #Chinese parasol3#,image: #https://img.wolftown.games/metarial/wood/Chinese parasol3.png#,},</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="14">
         <v>940</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G24" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#Chinese parasol3#:940,</v>
       </c>
-    </row>
-    <row r="25" ht="57.6" spans="2:7">
-      <c r="B25" s="1" t="s">
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:12">
+      <c r="A25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" t="str">
+      <c r="D25" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#Corundum#:{ description: #Corundum#,image: #https://img.wolftown.games/metarial/wood/Corundum.png#,},</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="14">
         <v>941</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G25" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#Corundum#:941,</v>
       </c>
-    </row>
-    <row r="26" ht="57.6" spans="2:7">
-      <c r="B26" s="1" t="s">
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="32"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:12">
+      <c r="A26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="str">
+      <c r="D26" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#Corundum2#:{ description: #Corundum2#,image: #https://img.wolftown.games/metarial/wood/Corundum2.png#,},</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="14">
         <v>942</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G26" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#Corundum2#:942,</v>
       </c>
-    </row>
-    <row r="27" ht="57.6" spans="2:7">
-      <c r="B27" s="1" t="s">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="32"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:12">
+      <c r="A27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" t="str">
+      <c r="D27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#Corundum3#:{ description: #Corundum3#,image: #https://img.wolftown.games/metarial/wood/Corundum3.png#,},</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="14">
         <v>943</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#Corundum3#:943,</v>
       </c>
-    </row>
-    <row r="28" ht="57.6" spans="2:7">
-      <c r="B28" s="1" t="s">
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:12">
+      <c r="A28" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" t="str">
+      <c r="D28" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#fir wood#:{ description: #fir wood#,image: #https://img.wolftown.games/metarial/wood/fir wood.png#,},</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="14">
         <v>944</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G28" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#fir wood#:944,</v>
       </c>
-    </row>
-    <row r="29" ht="57.6" spans="2:7">
-      <c r="B29" s="1" t="s">
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="32"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:12">
+      <c r="A29" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" t="str">
+      <c r="D29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#fir wood2#:{ description: #fir wood2#,image: #https://img.wolftown.games/metarial/wood/fir wood2.png#,},</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="14">
         <v>945</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G29" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#fir wood2#:945,</v>
       </c>
-    </row>
-    <row r="30" ht="57.6" spans="2:7">
-      <c r="B30" s="1" t="s">
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="32"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:12">
+      <c r="A30" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" t="str">
+      <c r="D30" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#fir wood3#:{ description: #fir wood3#,image: #https://img.wolftown.games/metarial/wood/fir wood3.png#,},</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="14">
         <v>946</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G30" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#fir wood3#:946,</v>
       </c>
-    </row>
-    <row r="31" ht="57.6" spans="2:7">
-      <c r="B31" s="1" t="s">
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="32"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:12">
+      <c r="A31" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" t="str">
+      <c r="D31" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#pine#:{ description: #pine#,image: #https://img.wolftown.games/metarial/wood/pine.png#,},</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="14">
         <v>947</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G31" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#pine#:947,</v>
       </c>
-    </row>
-    <row r="32" ht="57.6" spans="2:7">
-      <c r="B32" s="1" t="s">
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="32"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:12">
+      <c r="A32" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" t="str">
+      <c r="D32" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#pine2#:{ description: #pine2#,image: #https://img.wolftown.games/metarial/wood/pine2.png#,},</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="14">
         <v>948</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G32" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#pine2#:948,</v>
       </c>
-    </row>
-    <row r="33" ht="57.6" spans="2:7">
-      <c r="B33" s="1" t="s">
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="32"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:12">
+      <c r="A33" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" t="str">
+      <c r="D33" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#pine3#:{ description: #pine3#,image: #https://img.wolftown.games/metarial/wood/pine3.png#,},</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="14">
         <v>949</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G33" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#pine3#:949,</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" ht="57.6" spans="2:7">
-      <c r="B36" s="1" t="s">
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="32"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:12">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="33"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:12">
+      <c r="A35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="32"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:12">
+      <c r="A36" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" t="str">
+      <c r="D36" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#copper#:{ description: #copper#,image: #https://img.wolftown.games/metarial/stone/copper.png#,},</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="14">
         <v>950</v>
       </c>
-      <c r="G36" t="str">
+      <c r="G36" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#copper#:950,</v>
       </c>
-    </row>
-    <row r="37" ht="57.6" spans="2:7">
-      <c r="B37" s="1" t="s">
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="32"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:12">
+      <c r="A37" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" t="str">
+      <c r="D37" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#copper2#:{ description: #copper2#,image: #https://img.wolftown.games/metarial/stone/copper2.png#,},</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="14">
         <v>951</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G37" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#copper2#:951,</v>
       </c>
-    </row>
-    <row r="38" ht="57.6" spans="2:7">
-      <c r="B38" s="1" t="s">
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="32"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:12">
+      <c r="A38" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" t="str">
+      <c r="D38" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#copper3#:{ description: #copper3#,image: #https://img.wolftown.games/metarial/stone/copper3.png#,},</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="14">
         <v>952</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G38" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#copper3#:952,</v>
       </c>
-    </row>
-    <row r="39" ht="57.6" spans="2:7">
-      <c r="B39" s="1" t="s">
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="32"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:12">
+      <c r="A39" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" t="str">
+      <c r="D39" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#gold#:{ description: #gold#,image: #https://img.wolftown.games/metarial/stone/gold.png#,},</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="14">
         <v>953</v>
       </c>
-      <c r="G39" t="str">
+      <c r="G39" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#gold#:953,</v>
       </c>
-    </row>
-    <row r="40" ht="57.6" spans="2:7">
-      <c r="B40" s="1" t="s">
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="32"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:12">
+      <c r="A40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" t="str">
+      <c r="D40" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#gold2#:{ description: #gold2#,image: #https://img.wolftown.games/metarial/stone/gold2.png#,},</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="14">
         <v>954</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G40" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#gold2#:954,</v>
       </c>
-    </row>
-    <row r="41" ht="57.6" spans="2:7">
-      <c r="B41" s="1" t="s">
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="32"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:12">
+      <c r="A41" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" t="str">
+      <c r="D41" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#gold3#:{ description: #gold3#,image: #https://img.wolftown.games/metarial/stone/gold3.png#,},</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="14">
         <v>955</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G41" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#gold3#:955,</v>
       </c>
-    </row>
-    <row r="42" ht="57.6" spans="2:7">
-      <c r="B42" s="1" t="s">
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="32"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:12">
+      <c r="A42" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" t="str">
+      <c r="D42" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#iron#:{ description: #iron#,image: #https://img.wolftown.games/metarial/stone/iron.png#,},</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="14">
         <v>956</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G42" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#iron#:956,</v>
       </c>
-    </row>
-    <row r="43" ht="57.6" spans="2:7">
-      <c r="B43" s="1" t="s">
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="32"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:12">
+      <c r="A43" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" t="str">
+      <c r="D43" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#iron2#:{ description: #iron2#,image: #https://img.wolftown.games/metarial/stone/iron2.png#,},</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="14">
         <v>957</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G43" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#iron2#:957,</v>
       </c>
-    </row>
-    <row r="44" ht="57.6" spans="2:7">
-      <c r="B44" s="1" t="s">
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="32"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:12">
+      <c r="A44" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" t="str">
+      <c r="D44" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#iron3#:{ description: #iron3#,image: #https://img.wolftown.games/metarial/stone/iron3.png#,},</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="14">
         <v>958</v>
       </c>
-      <c r="G44" t="str">
+      <c r="G44" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#iron3#:958,</v>
       </c>
-    </row>
-    <row r="45" ht="57.6" spans="2:7">
-      <c r="B45" s="1" t="s">
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="32"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:12">
+      <c r="A45" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" t="str">
+      <c r="D45" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#Red gold#:{ description: #Red gold#,image: #https://img.wolftown.games/metarial/stone/Red gold.png#,},</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="14">
         <v>959</v>
       </c>
-      <c r="G45" t="str">
+      <c r="G45" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#Red gold#:959,</v>
       </c>
-    </row>
-    <row r="46" ht="57.6" spans="2:7">
-      <c r="B46" s="1" t="s">
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="32"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:12">
+      <c r="A46" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" t="str">
+      <c r="D46" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#Red gold2#:{ description: #Red gold2#,image: #https://img.wolftown.games/metarial/stone/Red gold2.png#,},</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="14">
         <v>960</v>
       </c>
-      <c r="G46" t="str">
+      <c r="G46" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#Red gold2#:960,</v>
       </c>
-    </row>
-    <row r="47" ht="57.6" spans="2:7">
-      <c r="B47" s="1" t="s">
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="32"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:12">
+      <c r="A47" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" t="str">
+      <c r="D47" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#Red gold3#:{ description: #Red gold3#,image: #https://img.wolftown.games/metarial/stone/Red gold3.png#,},</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="14">
         <v>961</v>
       </c>
-      <c r="G47" t="str">
+      <c r="G47" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#Red gold3#:961,</v>
       </c>
-    </row>
-    <row r="48" ht="57.6" spans="2:7">
-      <c r="B48" s="1" t="s">
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="32"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:12">
+      <c r="A48" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" t="str">
+      <c r="D48" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#titanium#:{ description: #titanium#,image: #https://img.wolftown.games/metarial/stone/titanium.png#,},</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="14">
         <v>962</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G48" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#titanium#:962,</v>
       </c>
-    </row>
-    <row r="49" ht="57.6" spans="2:7">
-      <c r="B49" s="1" t="s">
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="32"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:12">
+      <c r="A49" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" t="str">
+      <c r="D49" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="13" t="str">
         <f t="shared" si="3"/>
         <v>#titanium2#:{ description: #titanium2#,image: #https://img.wolftown.games/metarial/stone/titanium2.png#,},</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="14">
         <v>963</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G49" s="15" t="str">
         <f t="shared" si="4"/>
         <v>#titanium2#:963,</v>
       </c>
-    </row>
-    <row r="50" ht="57.6" spans="2:7">
-      <c r="B50" s="1" t="s">
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="32"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:12">
+      <c r="A50" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" t="str">
+      <c r="D50" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="24" t="str">
         <f t="shared" si="3"/>
         <v>#titanium3#:{ description: #titanium3#,image: #https://img.wolftown.games/metarial/stone/titanium3.png#,},</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="25">
         <v>964</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G50" s="26" t="str">
         <f t="shared" si="4"/>
         <v>#titanium3#:964,</v>
       </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/材料表.xlsx
+++ b/材料表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
   <si>
     <t>中文名</t>
   </si>
@@ -51,403 +51,313 @@
     <t>https://img.wolftown.games/weapon/artillery.png</t>
   </si>
   <si>
+    <t>Chinese parasol</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>炮塔</t>
+  </si>
+  <si>
+    <t>bartizan</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/weapon/bartizan.png</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>投石器</t>
+  </si>
+  <si>
+    <t>Catapult</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/weapon/Catapult.png</t>
+  </si>
+  <si>
+    <t>Corundum</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>旋风轮车</t>
+  </si>
+  <si>
+    <t>Cyclone wheel car</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/weapon/Cyclone wheel car.png</t>
+  </si>
+  <si>
+    <t>fir wood</t>
+  </si>
+  <si>
+    <t>Red gold</t>
+  </si>
+  <si>
+    <t>冲车</t>
+  </si>
+  <si>
+    <t>Rush Car</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/weapon/Rush Car.png</t>
+  </si>
+  <si>
+    <t>pine</t>
+  </si>
+  <si>
+    <t>titanium</t>
+  </si>
+  <si>
+    <t>wool</t>
+  </si>
+  <si>
+    <t>一级乌沉</t>
+  </si>
+  <si>
     <t>Black sunken</t>
   </si>
   <si>
-    <t>copper</t>
-  </si>
-  <si>
-    <t>火炮2</t>
-  </si>
-  <si>
-    <t>artillery2</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/artillery2.png</t>
+    <t>https://img.wolftown.games/metarial/wood/Black sunken.png</t>
+  </si>
+  <si>
+    <t>二级乌沉</t>
   </si>
   <si>
     <t>Black sunken2</t>
   </si>
   <si>
+    <t>https://img.wolftown.games/metarial/wood/Black sunken2.png</t>
+  </si>
+  <si>
+    <t>三级乌沉</t>
+  </si>
+  <si>
+    <t>Black sunken3</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/wood/Black sunken3.png</t>
+  </si>
+  <si>
+    <t>一级梧桐</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/wood/Chinese parasol.png</t>
+  </si>
+  <si>
+    <t>二级梧桐</t>
+  </si>
+  <si>
+    <t>Chinese parasol2</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/wood/Chinese parasol2.png</t>
+  </si>
+  <si>
+    <t>三级梧桐</t>
+  </si>
+  <si>
+    <t>Chinese parasol3</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/wood/Chinese parasol3.png</t>
+  </si>
+  <si>
+    <t>一级金刚</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/wood/Corundum.png</t>
+  </si>
+  <si>
+    <t>二级金刚</t>
+  </si>
+  <si>
+    <t>Corundum2</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/wood/Corundum2.png</t>
+  </si>
+  <si>
+    <t>三级金刚</t>
+  </si>
+  <si>
+    <t>Corundum3</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/wood/Corundum3.png</t>
+  </si>
+  <si>
+    <t>一级杉木</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/wood/fir wood.png</t>
+  </si>
+  <si>
+    <t>二级杉木</t>
+  </si>
+  <si>
+    <t>fir wood2</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/wood/fir wood2.png</t>
+  </si>
+  <si>
+    <t>三级杉木</t>
+  </si>
+  <si>
+    <t>fir wood3</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/wood/fir wood3.png</t>
+  </si>
+  <si>
+    <t>一级松木</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/wood/pine.png</t>
+  </si>
+  <si>
+    <t>二级松木</t>
+  </si>
+  <si>
+    <t>pine2</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/wood/pine2.png</t>
+  </si>
+  <si>
+    <t>三级松木</t>
+  </si>
+  <si>
+    <t>pine3</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/wood/pine3.png</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>一级铜</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/stone/copper.png</t>
+  </si>
+  <si>
+    <t>二级铜</t>
+  </si>
+  <si>
     <t>copper2</t>
   </si>
   <si>
-    <t>火炮3</t>
-  </si>
-  <si>
-    <t>artillery3</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/artillery3.png</t>
-  </si>
-  <si>
-    <t>Black sunken3</t>
+    <t>https://img.wolftown.games/metarial/stone/copper2.png</t>
+  </si>
+  <si>
+    <t>三级铜</t>
   </si>
   <si>
     <t>copper3</t>
   </si>
   <si>
-    <t>炮塔</t>
-  </si>
-  <si>
-    <t>bartizan</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/bartizan.png</t>
-  </si>
-  <si>
-    <t>Chinese parasol</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>炮塔2</t>
-  </si>
-  <si>
-    <t>bartizan2</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/bartizan2.png</t>
-  </si>
-  <si>
-    <t>Chinese parasol2</t>
+    <t>https://img.wolftown.games/metarial/stone/copper3.png</t>
+  </si>
+  <si>
+    <t>一级金</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/stone/gold.png</t>
+  </si>
+  <si>
+    <t>二级金</t>
   </si>
   <si>
     <t>gold2</t>
   </si>
   <si>
-    <t>炮塔3</t>
-  </si>
-  <si>
-    <t>bartizan3</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/bartizan3.png</t>
-  </si>
-  <si>
-    <t>Chinese parasol3</t>
+    <t>https://img.wolftown.games/metarial/stone/gold2.png</t>
+  </si>
+  <si>
+    <t>三级金</t>
   </si>
   <si>
     <t>gold3</t>
   </si>
   <si>
-    <t>投石器</t>
-  </si>
-  <si>
-    <t>Catapult</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/Catapult.png</t>
-  </si>
-  <si>
-    <t>Corundum</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>投石器2</t>
-  </si>
-  <si>
-    <t>Catapult2</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/Catapult2.png</t>
-  </si>
-  <si>
-    <t>Corundum2</t>
+    <t>https://img.wolftown.games/metarial/stone/gold3.png</t>
+  </si>
+  <si>
+    <t>一级银</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/stone/iron.png</t>
+  </si>
+  <si>
+    <t>二级银</t>
   </si>
   <si>
     <t>iron2</t>
   </si>
   <si>
-    <t>投石器3</t>
-  </si>
-  <si>
-    <t>Catapult3</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/Catapult3.png</t>
-  </si>
-  <si>
-    <t>Corundum3</t>
+    <t>https://img.wolftown.games/metarial/stone/iron2.png</t>
+  </si>
+  <si>
+    <t>三级银</t>
   </si>
   <si>
     <t>iron3</t>
   </si>
   <si>
-    <t>旋风轮车</t>
-  </si>
-  <si>
-    <t>Cyclone wheel car</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/Cyclone wheel car.png</t>
-  </si>
-  <si>
-    <t>fir wood</t>
-  </si>
-  <si>
-    <t>Red gold</t>
-  </si>
-  <si>
-    <t>旋风轮车2</t>
-  </si>
-  <si>
-    <t>Cyclone wheel car2</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/Cyclone wheel car2.png</t>
-  </si>
-  <si>
-    <t>fir wood2</t>
+    <t>https://img.wolftown.games/metarial/stone/iron3.png</t>
+  </si>
+  <si>
+    <t>一级赤金</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/stone/Red gold.png</t>
+  </si>
+  <si>
+    <t>二级赤金</t>
   </si>
   <si>
     <t>Red gold2</t>
   </si>
   <si>
-    <t>旋风轮车3</t>
-  </si>
-  <si>
-    <t>Cyclone wheel car3</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/Cyclone wheel car3.png</t>
-  </si>
-  <si>
-    <t>fir wood3</t>
+    <t>https://img.wolftown.games/metarial/stone/Red gold2.png</t>
+  </si>
+  <si>
+    <t>三级赤金</t>
   </si>
   <si>
     <t>Red gold3</t>
   </si>
   <si>
-    <t>冲车</t>
-  </si>
-  <si>
-    <t>Rush Car</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/Rush Car.png</t>
-  </si>
-  <si>
-    <t>pine</t>
-  </si>
-  <si>
-    <t>titanium</t>
-  </si>
-  <si>
-    <t>冲车2</t>
-  </si>
-  <si>
-    <t>Rush Car2</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/Rush Car2.png</t>
-  </si>
-  <si>
-    <t>pine2</t>
+    <t>https://img.wolftown.games/metarial/stone/Red gold3.png</t>
+  </si>
+  <si>
+    <t>一级钛</t>
+  </si>
+  <si>
+    <t>https://img.wolftown.games/metarial/stone/titanium.png</t>
+  </si>
+  <si>
+    <t>二级钛</t>
   </si>
   <si>
     <t>titanium2</t>
   </si>
   <si>
-    <t>冲车3</t>
-  </si>
-  <si>
-    <t>Rush Car3</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/weapon/Rush Car3.png</t>
-  </si>
-  <si>
-    <t>pine3</t>
+    <t>https://img.wolftown.games/metarial/stone/titanium2.png</t>
+  </si>
+  <si>
+    <t>三级钛</t>
   </si>
   <si>
     <t>titanium3</t>
-  </si>
-  <si>
-    <t>wool</t>
-  </si>
-  <si>
-    <t>一级乌沉</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/Black sunken.png</t>
-  </si>
-  <si>
-    <t>二级乌沉</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/Black sunken2.png</t>
-  </si>
-  <si>
-    <t>三级乌沉</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/Black sunken3.png</t>
-  </si>
-  <si>
-    <t>一级梧桐</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/Chinese parasol.png</t>
-  </si>
-  <si>
-    <t>二级梧桐</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/Chinese parasol2.png</t>
-  </si>
-  <si>
-    <t>三级梧桐</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/Chinese parasol3.png</t>
-  </si>
-  <si>
-    <t>一级金刚</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/Corundum.png</t>
-  </si>
-  <si>
-    <t>二级金刚</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/Corundum2.png</t>
-  </si>
-  <si>
-    <t>三级金刚</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/Corundum3.png</t>
-  </si>
-  <si>
-    <t>一级杉木</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/fir wood.png</t>
-  </si>
-  <si>
-    <t>二级杉木</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/fir wood2.png</t>
-  </si>
-  <si>
-    <t>三级杉木</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/fir wood3.png</t>
-  </si>
-  <si>
-    <t>一级松木</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/pine.png</t>
-  </si>
-  <si>
-    <t>二级松木</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/pine2.png</t>
-  </si>
-  <si>
-    <t>三级松木</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/wood/pine3.png</t>
-  </si>
-  <si>
-    <t>stone</t>
-  </si>
-  <si>
-    <t>一级铜</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/copper.png</t>
-  </si>
-  <si>
-    <t>二级铜</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/copper2.png</t>
-  </si>
-  <si>
-    <t>三级铜</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/copper3.png</t>
-  </si>
-  <si>
-    <t>一级金</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/gold.png</t>
-  </si>
-  <si>
-    <t>二级金</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/gold2.png</t>
-  </si>
-  <si>
-    <t>三级金</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/gold3.png</t>
-  </si>
-  <si>
-    <t>一级银</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/iron.png</t>
-  </si>
-  <si>
-    <t>二级银</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/iron2.png</t>
-  </si>
-  <si>
-    <t>三级银</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/iron3.png</t>
-  </si>
-  <si>
-    <t>一级赤金</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/Red gold.png</t>
-  </si>
-  <si>
-    <t>二级赤金</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/Red gold2.png</t>
-  </si>
-  <si>
-    <t>三级赤金</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/Red gold3.png</t>
-  </si>
-  <si>
-    <t>一级钛</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/titanium.png</t>
-  </si>
-  <si>
-    <t>二级钛</t>
-  </si>
-  <si>
-    <t>https://img.wolftown.games/metarial/stone/titanium2.png</t>
-  </si>
-  <si>
-    <t>三级钛</t>
   </si>
   <si>
     <t>https://img.wolftown.games/metarial/stone/titanium3.png</t>
@@ -492,6 +402,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -515,14 +433,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -997,6 +907,21 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
         <color rgb="FF5A5A5A"/>
       </right>
       <top style="thin">
@@ -1012,7 +937,7 @@
         <color rgb="FFE6E6E6"/>
       </left>
       <right style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1027,9 +952,7 @@
       <right style="thin">
         <color rgb="FF5A5A5A"/>
       </right>
-      <top style="thin">
-        <color rgb="FFE6E6E6"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FFE6E6E6"/>
       </bottom>
@@ -1040,12 +963,70 @@
         <color rgb="FFE6E6E6"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
         <color rgb="FF5A5A5A"/>
       </right>
       <top style="thin">
         <color rgb="FFE6E6E6"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5A5A5A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1169,10 +1150,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,19 +1162,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,10 +1183,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1220,40 +1201,40 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1262,56 +1243,56 @@
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1366,6 +1347,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1396,25 +1380,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1765,12 +1767,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1"/>
@@ -1783,11 +1785,11 @@
     <col min="8" max="8" width="22.5648148148148" customWidth="1"/>
     <col min="9" max="9" width="17.2314814814815" customWidth="1"/>
     <col min="10" max="10" width="9.08333333333333" customWidth="1"/>
-    <col min="11" max="11" width="7.23148148148148" customWidth="1"/>
-    <col min="12" max="12" width="50.7777777777778" customWidth="1"/>
+    <col min="11" max="13" width="7.23148148148148" customWidth="1"/>
+    <col min="14" max="14" width="50.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1815,9 +1817,11 @@
         <v>7</v>
       </c>
       <c r="K1" s="3"/>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:12">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1848,19 +1852,21 @@
         <v>12</v>
       </c>
       <c r="J2" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K2" s="8">
         <v>4</v>
       </c>
-      <c r="L2" s="28" t="str">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31" t="str">
         <f>"#"&amp;B2&amp;"#"&amp;":{name:#"&amp;B2&amp;"#, description: "&amp;"#"&amp;C2&amp;"#,ingredients: [{ item:#"&amp;H2&amp;"#,amount: new Decimal("&amp;J2&amp;"),
       },{ item:#"&amp;I2&amp;"#,amount: new Decimal("&amp;K2&amp;"),},], },"</f>
-        <v>#artillery#:{name:#artillery#, description: #artillery#,ingredients: [{ item:#Black sunken#,amount: new Decimal(2),
+        <v>#artillery#:{name:#artillery#, description: #artillery#,ingredients: [{ item:#Chinese parasol#,amount: new Decimal(10),
       },{ item:#copper#,amount: new Decimal(4),},], },</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:12">
+    <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -1874,1542 +1880,1210 @@
         <v>15</v>
       </c>
       <c r="E3" s="13" t="str">
-        <f t="shared" ref="E3:E16" si="0">"#"&amp;B3&amp;"#"&amp;":{ description: "&amp;"#"&amp;C3&amp;"#,image: "&amp;"#"&amp;D3&amp;"#,},"</f>
-        <v>#artillery2#:{ description: #artillery2#,image: #https://img.wolftown.games/weapon/artillery2.png#,},</v>
+        <f>"#"&amp;B3&amp;"#"&amp;":{ description: "&amp;"#"&amp;C3&amp;"#,image: "&amp;"#"&amp;D3&amp;"#,},"</f>
+        <v>#bartizan#:{ description: #bartizan#,image: #https://img.wolftown.games/weapon/bartizan.png#,},</v>
       </c>
       <c r="F3" s="14">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="G3" s="15" t="str">
-        <f t="shared" ref="G3:G16" si="1">"#"&amp;B3&amp;"#:"&amp;F3&amp;","</f>
-        <v>#artillery2#:921,</v>
+        <f>"#"&amp;B3&amp;"#:"&amp;F3&amp;","</f>
+        <v>#bartizan#:923,</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="14">
+        <v>5</v>
+      </c>
+      <c r="K3" s="14">
+        <v>7</v>
+      </c>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33" t="str">
+        <f>"#"&amp;B3&amp;"#"&amp;":{name:#"&amp;B3&amp;"#, description: "&amp;"#"&amp;C3&amp;"#,ingredients: [{ item:#"&amp;H3&amp;"#,amount: new Decimal("&amp;J3&amp;"),
+      },{ item:#"&amp;I3&amp;"#,amount: new Decimal("&amp;K3&amp;"),},], },"</f>
+        <v>#bartizan#:{name:#bartizan#, description: #bartizan#,ingredients: [{ item:#Chinese parasol#,amount: new Decimal(5),
+      },{ item:#gold#,amount: new Decimal(7),},], },</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:14">
+      <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="14">
-        <v>3</v>
-      </c>
-      <c r="K3" s="14">
-        <v>5</v>
-      </c>
-      <c r="L3" s="29" t="str">
-        <f t="shared" ref="L3:L16" si="2">"#"&amp;B3&amp;"#"&amp;":{name:#"&amp;B3&amp;"#, description: "&amp;"#"&amp;C3&amp;"#,ingredients: [{ item:#"&amp;H3&amp;"#,amount: new Decimal("&amp;J3&amp;"),
-      },{ item:#"&amp;I3&amp;"#,amount: new Decimal("&amp;K3&amp;"),},], },"</f>
-        <v>#artillery2#:{name:#artillery2#, description: #artillery2#,ingredients: [{ item:#Black sunken2#,amount: new Decimal(3),
-      },{ item:#copper2#,amount: new Decimal(5),},], },</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:12">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="13" t="str">
+        <f>"#"&amp;B4&amp;"#"&amp;":{ description: "&amp;"#"&amp;C4&amp;"#,image: "&amp;"#"&amp;D4&amp;"#,},"</f>
+        <v>#Catapult#:{ description: #Catapult#,image: #https://img.wolftown.games/weapon/Catapult.png#,},</v>
+      </c>
+      <c r="F4" s="14">
+        <v>926</v>
+      </c>
+      <c r="G4" s="15" t="str">
+        <f>"#"&amp;B4&amp;"#:"&amp;F4&amp;","</f>
+        <v>#Catapult#:926,</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>#artillery3#:{ description: #artillery3#,image: #https://img.wolftown.games/weapon/artillery3.png#,},</v>
-      </c>
-      <c r="F4" s="14">
-        <v>922</v>
-      </c>
-      <c r="G4" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>#artillery3#:922,</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="14">
+        <v>8</v>
+      </c>
+      <c r="K4" s="14">
+        <v>4</v>
+      </c>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="33" t="str">
+        <f>"#"&amp;B4&amp;"#"&amp;":{name:#"&amp;B4&amp;"#, description: "&amp;"#"&amp;C4&amp;"#,ingredients: [{ item:#"&amp;H4&amp;"#,amount: new Decimal("&amp;J4&amp;"),
+      },{ item:#"&amp;I4&amp;"#,amount: new Decimal("&amp;K4&amp;"),},], },"</f>
+        <v>#Catapult#:{name:#Catapult#, description: #Catapult#,ingredients: [{ item:#Corundum#,amount: new Decimal(8),
+      },{ item:#iron#,amount: new Decimal(4),},], },</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:14">
+      <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="14">
-        <v>4</v>
-      </c>
-      <c r="K4" s="14">
-        <v>6</v>
-      </c>
-      <c r="L4" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>#artillery3#:{name:#artillery3#, description: #artillery3#,ingredients: [{ item:#Black sunken3#,amount: new Decimal(4),
-      },{ item:#copper3#,amount: new Decimal(6),},], },</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:12">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="13" t="str">
+        <f>"#"&amp;B5&amp;"#"&amp;":{ description: "&amp;"#"&amp;C5&amp;"#,image: "&amp;"#"&amp;D5&amp;"#,},"</f>
+        <v>#Cyclone wheel car#:{ description: #Cyclone wheel car#,image: #https://img.wolftown.games/weapon/Cyclone wheel car.png#,},</v>
+      </c>
+      <c r="F5" s="14">
+        <v>929</v>
+      </c>
+      <c r="G5" s="15" t="str">
+        <f>"#"&amp;B5&amp;"#:"&amp;F5&amp;","</f>
+        <v>#Cyclone wheel car#:929,</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>#bartizan#:{ description: #bartizan#,image: #https://img.wolftown.games/weapon/bartizan.png#,},</v>
-      </c>
-      <c r="F5" s="14">
-        <v>923</v>
-      </c>
-      <c r="G5" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>#bartizan#:923,</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="J5" s="14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K5" s="14">
         <v>7</v>
       </c>
-      <c r="L5" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>#bartizan#:{name:#bartizan#, description: #bartizan#,ingredients: [{ item:#Chinese parasol#,amount: new Decimal(5),
-      },{ item:#gold#,amount: new Decimal(7),},], },</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:12">
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33" t="str">
+        <f>"#"&amp;B5&amp;"#"&amp;":{name:#"&amp;B5&amp;"#, description: "&amp;"#"&amp;C5&amp;"#,ingredients: [{ item:#"&amp;H5&amp;"#,amount: new Decimal("&amp;J5&amp;"),
+      },{ item:#"&amp;I5&amp;"#,amount: new Decimal("&amp;K5&amp;"),},], },"</f>
+        <v>#Cyclone wheel car#:{name:#Cyclone wheel car#, description: #Cyclone wheel car#,ingredients: [{ item:#fir wood#,amount: new Decimal(11),
+      },{ item:#Red gold#,amount: new Decimal(7),},], },</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:14">
       <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="13" t="str">
+        <f>"#"&amp;B6&amp;"#"&amp;":{ description: "&amp;"#"&amp;C6&amp;"#,image: "&amp;"#"&amp;D6&amp;"#,},"</f>
+        <v>#Rush Car#:{ description: #Rush Car#,image: #https://img.wolftown.games/weapon/Rush Car.png#,},</v>
+      </c>
+      <c r="F6" s="14">
+        <v>932</v>
+      </c>
+      <c r="G6" s="15" t="str">
+        <f>"#"&amp;B6&amp;"#:"&amp;F6&amp;","</f>
+        <v>#Rush Car#:932,</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>#bartizan2#:{ description: #bartizan2#,image: #https://img.wolftown.games/weapon/bartizan2.png#,},</v>
-      </c>
-      <c r="F6" s="14">
-        <v>924</v>
-      </c>
-      <c r="G6" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>#bartizan2#:924,</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="14">
+        <v>14</v>
+      </c>
+      <c r="K6" s="14">
+        <v>10</v>
+      </c>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="33" t="str">
+        <f>"#"&amp;B6&amp;"#"&amp;":{name:#"&amp;B6&amp;"#, description: "&amp;"#"&amp;C6&amp;"#,ingredients: [{ item:#"&amp;H6&amp;"#,amount: new Decimal("&amp;J6&amp;"),
+      },{ item:#"&amp;I6&amp;"#,amount: new Decimal("&amp;K6&amp;"),},], },"</f>
+        <v>#Rush Car#:{name:#Rush Car#, description: #Rush Car#,ingredients: [{ item:#pine#,amount: new Decimal(14),
+      },{ item:#titanium#,amount: new Decimal(10),},], },</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:14">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="35"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:14">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="14">
-        <v>6</v>
-      </c>
-      <c r="K6" s="14">
-        <v>8</v>
-      </c>
-      <c r="L6" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>#bartizan2#:{name:#bartizan2#, description: #bartizan2#,ingredients: [{ item:#Chinese parasol2#,amount: new Decimal(6),
-      },{ item:#gold2#,amount: new Decimal(8),},], },</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:12">
-      <c r="A7" s="10" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:14">
+      <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>#bartizan3#:{ description: #bartizan3#,image: #https://img.wolftown.games/weapon/bartizan3.png#,},</v>
-      </c>
-      <c r="F7" s="14">
-        <v>925</v>
-      </c>
-      <c r="G7" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>#bartizan3#:925,</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="E9" s="7" t="str">
+        <f t="shared" ref="E7:E40" si="0">"#"&amp;B9&amp;"#"&amp;":{ description: "&amp;"#"&amp;C9&amp;"#,image: "&amp;"#"&amp;D9&amp;"#,},"</f>
+        <v>#Black sunken#:{ description: #Black sunken#,image: #https://img.wolftown.games/metarial/wood/Black sunken.png#,},</v>
+      </c>
+      <c r="F9" s="8">
+        <v>935</v>
+      </c>
+      <c r="G9" s="9" t="str">
+        <f t="shared" ref="G7:G40" si="1">"#"&amp;B9&amp;"#:"&amp;F9&amp;","</f>
+        <v>#Black sunken#:935,</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="36"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:14">
+      <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="14">
-        <v>7</v>
-      </c>
-      <c r="K7" s="14">
-        <v>9</v>
-      </c>
-      <c r="L7" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>#bartizan3#:{name:#bartizan3#, description: #bartizan3#,ingredients: [{ item:#Chinese parasol3#,amount: new Decimal(7),
-      },{ item:#gold3#,amount: new Decimal(9),},], },</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:12">
-      <c r="A8" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>#Catapult#:{ description: #Catapult#,image: #https://img.wolftown.games/weapon/Catapult.png#,},</v>
-      </c>
-      <c r="F8" s="14">
-        <v>926</v>
-      </c>
-      <c r="G8" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>#Catapult#:926,</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="14">
-        <v>8</v>
-      </c>
-      <c r="K8" s="14">
-        <v>4</v>
-      </c>
-      <c r="L8" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>#Catapult#:{name:#Catapult#, description: #Catapult#,ingredients: [{ item:#Corundum#,amount: new Decimal(8),
-      },{ item:#iron#,amount: new Decimal(4),},], },</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:12">
-      <c r="A9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>#Catapult2#:{ description: #Catapult2#,image: #https://img.wolftown.games/weapon/Catapult2.png#,},</v>
-      </c>
-      <c r="F9" s="14">
-        <v>927</v>
-      </c>
-      <c r="G9" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>#Catapult2#:927,</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="14">
-        <v>9</v>
-      </c>
-      <c r="K9" s="14">
-        <v>5</v>
-      </c>
-      <c r="L9" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>#Catapult2#:{name:#Catapult2#, description: #Catapult2#,ingredients: [{ item:#Corundum2#,amount: new Decimal(9),
-      },{ item:#iron2#,amount: new Decimal(5),},], },</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:12">
-      <c r="A10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#Catapult3#:{ description: #Catapult3#,image: #https://img.wolftown.games/weapon/Catapult3.png#,},</v>
+        <v>#Black sunken2#:{ description: #Black sunken2#,image: #https://img.wolftown.games/metarial/wood/Black sunken2.png#,},</v>
       </c>
       <c r="F10" s="14">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="G10" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>#Catapult3#:928,</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="14">
-        <v>10</v>
-      </c>
-      <c r="K10" s="14">
-        <v>6</v>
-      </c>
-      <c r="L10" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>#Catapult3#:{name:#Catapult3#, description: #Catapult3#,ingredients: [{ item:#Corundum3#,amount: new Decimal(10),
-      },{ item:#iron3#,amount: new Decimal(6),},], },</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:12">
+        <v>#Black sunken2#:936,</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:14">
       <c r="A11" s="10" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#Cyclone wheel car#:{ description: #Cyclone wheel car#,image: #https://img.wolftown.games/weapon/Cyclone wheel car.png#,},</v>
+        <v>#Black sunken3#:{ description: #Black sunken3#,image: #https://img.wolftown.games/metarial/wood/Black sunken3.png#,},</v>
       </c>
       <c r="F11" s="14">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="G11" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>#Cyclone wheel car#:929,</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="14">
+        <v>#Black sunken3#:937,</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:14">
+      <c r="A12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="14">
-        <v>7</v>
-      </c>
-      <c r="L11" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>#Cyclone wheel car#:{name:#Cyclone wheel car#, description: #Cyclone wheel car#,ingredients: [{ item:#fir wood#,amount: new Decimal(11),
-      },{ item:#Red gold#,amount: new Decimal(7),},], },</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:12">
-      <c r="A12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="C12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>60</v>
+        <v>11</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#Cyclone wheel car2#:{ description: #Cyclone wheel car2#,image: #https://img.wolftown.games/weapon/Cyclone wheel car2.png#,},</v>
+        <v>#Chinese parasol#:{ description: #Chinese parasol#,image: #https://img.wolftown.games/metarial/wood/Chinese parasol.png#,},</v>
       </c>
       <c r="F12" s="14">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="G12" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>#Cyclone wheel car2#:930,</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="14">
-        <v>12</v>
-      </c>
-      <c r="K12" s="14">
-        <v>8</v>
-      </c>
-      <c r="L12" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>#Cyclone wheel car2#:{name:#Cyclone wheel car2#, description: #Cyclone wheel car2#,ingredients: [{ item:#fir wood2#,amount: new Decimal(12),
-      },{ item:#Red gold2#,amount: new Decimal(8),},], },</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:12">
+        <v>#Chinese parasol#:938,</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:14">
       <c r="A13" s="10" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#Cyclone wheel car3#:{ description: #Cyclone wheel car3#,image: #https://img.wolftown.games/weapon/Cyclone wheel car3.png#,},</v>
+        <v>#Chinese parasol2#:{ description: #Chinese parasol2#,image: #https://img.wolftown.games/metarial/wood/Chinese parasol2.png#,},</v>
       </c>
       <c r="F13" s="14">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="G13" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>#Cyclone wheel car3#:931,</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="14">
-        <v>13</v>
-      </c>
-      <c r="K13" s="14">
-        <v>9</v>
-      </c>
-      <c r="L13" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>#Cyclone wheel car3#:{name:#Cyclone wheel car3#, description: #Cyclone wheel car3#,ingredients: [{ item:#fir wood3#,amount: new Decimal(13),
-      },{ item:#Red gold3#,amount: new Decimal(9),},], },</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:12">
+        <v>#Chinese parasol2#:939,</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:14">
       <c r="A14" s="10" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#Rush Car#:{ description: #Rush Car#,image: #https://img.wolftown.games/weapon/Rush Car.png#,},</v>
+        <v>#Chinese parasol3#:{ description: #Chinese parasol3#,image: #https://img.wolftown.games/metarial/wood/Chinese parasol3.png#,},</v>
       </c>
       <c r="F14" s="14">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="G14" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>#Rush Car#:932,</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="14">
-        <v>14</v>
-      </c>
-      <c r="K14" s="14">
-        <v>10</v>
-      </c>
-      <c r="L14" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>#Rush Car#:{name:#Rush Car#, description: #Rush Car#,ingredients: [{ item:#pine#,amount: new Decimal(14),
-      },{ item:#titanium#,amount: new Decimal(10),},], },</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:12">
+        <v>#Chinese parasol3#:940,</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:14">
       <c r="A15" s="10" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#Rush Car2#:{ description: #Rush Car2#,image: #https://img.wolftown.games/weapon/Rush Car2.png#,},</v>
+        <v>#Corundum#:{ description: #Corundum#,image: #https://img.wolftown.games/metarial/wood/Corundum.png#,},</v>
       </c>
       <c r="F15" s="14">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="G15" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>#Rush Car2#:933,</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="14">
-        <v>15</v>
-      </c>
-      <c r="K15" s="14">
-        <v>11</v>
-      </c>
-      <c r="L15" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>#Rush Car2#:{name:#Rush Car2#, description: #Rush Car2#,ingredients: [{ item:#pine2#,amount: new Decimal(15),
-      },{ item:#titanium2#,amount: new Decimal(11),},], },</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:12">
+        <v>#Corundum#:941,</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="37"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:14">
       <c r="A16" s="10" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#Rush Car3#:{ description: #Rush Car3#,image: #https://img.wolftown.games/weapon/Rush Car3.png#,},</v>
+        <v>#Corundum2#:{ description: #Corundum2#,image: #https://img.wolftown.games/metarial/wood/Corundum2.png#,},</v>
       </c>
       <c r="F16" s="14">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="G16" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>#Rush Car3#:934,</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="14">
-        <v>16</v>
-      </c>
-      <c r="K16" s="14">
-        <v>12</v>
-      </c>
-      <c r="L16" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>#Rush Car3#:{name:#Rush Car3#, description: #Rush Car3#,ingredients: [{ item:#pine3#,amount: new Decimal(16),
-      },{ item:#titanium3#,amount: new Decimal(12),},], },</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:12">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:12">
-      <c r="A19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="7" t="str">
-        <f t="shared" ref="E17:E50" si="3">"#"&amp;B19&amp;"#"&amp;":{ description: "&amp;"#"&amp;C19&amp;"#,image: "&amp;"#"&amp;D19&amp;"#,},"</f>
-        <v>#Black sunken#:{ description: #Black sunken#,image: #https://img.wolftown.games/metarial/wood/Black sunken.png#,},</v>
-      </c>
-      <c r="F19" s="8">
-        <v>935</v>
-      </c>
-      <c r="G19" s="9" t="str">
-        <f t="shared" ref="G17:G50" si="4">"#"&amp;B19&amp;"#:"&amp;F19&amp;","</f>
-        <v>#Black sunken#:935,</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="31"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:12">
+        <v>#Corundum2#:942,</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:14">
+      <c r="A17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>#Corundum3#:{ description: #Corundum3#,image: #https://img.wolftown.games/metarial/wood/Corundum3.png#,},</v>
+      </c>
+      <c r="F17" s="14">
+        <v>943</v>
+      </c>
+      <c r="G17" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>#Corundum3#:943,</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="37"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:14">
+      <c r="A18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>#fir wood#:{ description: #fir wood#,image: #https://img.wolftown.games/metarial/wood/fir wood.png#,},</v>
+      </c>
+      <c r="F18" s="14">
+        <v>944</v>
+      </c>
+      <c r="G18" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>#fir wood#:944,</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:14">
+      <c r="A19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>#fir wood2#:{ description: #fir wood2#,image: #https://img.wolftown.games/metarial/wood/fir wood2.png#,},</v>
+      </c>
+      <c r="F19" s="14">
+        <v>945</v>
+      </c>
+      <c r="G19" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>#fir wood2#:945,</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:14">
       <c r="A20" s="10" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E20" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#Black sunken2#:{ description: #Black sunken2#,image: #https://img.wolftown.games/metarial/wood/Black sunken2.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#fir wood3#:{ description: #fir wood3#,image: #https://img.wolftown.games/metarial/wood/fir wood3.png#,},</v>
       </c>
       <c r="F20" s="14">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="G20" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#Black sunken2#:936,</v>
+        <f t="shared" si="1"/>
+        <v>#fir wood3#:946,</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="32"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:12">
+      <c r="M20" s="32"/>
+      <c r="N20" s="37"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:14">
       <c r="A21" s="10" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>89</v>
+        <v>30</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="E21" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#Black sunken3#:{ description: #Black sunken3#,image: #https://img.wolftown.games/metarial/wood/Black sunken3.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#pine#:{ description: #pine#,image: #https://img.wolftown.games/metarial/wood/pine.png#,},</v>
       </c>
       <c r="F21" s="14">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="G21" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#Black sunken3#:937,</v>
+        <f t="shared" si="1"/>
+        <v>#pine#:947,</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="32"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:12">
+      <c r="M21" s="32"/>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:14">
       <c r="A22" s="10" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>91</v>
+        <v>69</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="E22" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#Chinese parasol#:{ description: #Chinese parasol#,image: #https://img.wolftown.games/metarial/wood/Chinese parasol.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#pine2#:{ description: #pine2#,image: #https://img.wolftown.games/metarial/wood/pine2.png#,},</v>
       </c>
       <c r="F22" s="14">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="G22" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#Chinese parasol#:938,</v>
+        <f t="shared" si="1"/>
+        <v>#pine2#:948,</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="32"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:12">
+      <c r="M22" s="32"/>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:14">
       <c r="A23" s="10" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E23" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#Chinese parasol2#:{ description: #Chinese parasol2#,image: #https://img.wolftown.games/metarial/wood/Chinese parasol2.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#pine3#:{ description: #pine3#,image: #https://img.wolftown.games/metarial/wood/pine3.png#,},</v>
       </c>
       <c r="F23" s="14">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="G23" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#Chinese parasol2#:939,</v>
+        <f t="shared" si="1"/>
+        <v>#pine3#:949,</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="32"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:12">
-      <c r="A24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#Chinese parasol3#:{ description: #Chinese parasol3#,image: #https://img.wolftown.games/metarial/wood/Chinese parasol3.png#,},</v>
-      </c>
-      <c r="F24" s="14">
-        <v>940</v>
-      </c>
-      <c r="G24" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#Chinese parasol3#:940,</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="32"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:12">
+      <c r="M23" s="32"/>
+      <c r="N23" s="37"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:14">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="39"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:14">
       <c r="A25" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#Corundum#:{ description: #Corundum#,image: #https://img.wolftown.games/metarial/wood/Corundum.png#,},</v>
-      </c>
-      <c r="F25" s="14">
-        <v>941</v>
-      </c>
-      <c r="G25" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#Corundum#:941,</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="32"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:12">
+      <c r="M25" s="32"/>
+      <c r="N25" s="37"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:14">
       <c r="A26" s="10" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="E26" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#Corundum2#:{ description: #Corundum2#,image: #https://img.wolftown.games/metarial/wood/Corundum2.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#copper#:{ description: #copper#,image: #https://img.wolftown.games/metarial/stone/copper.png#,},</v>
       </c>
       <c r="F26" s="14">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="G26" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#Corundum2#:942,</v>
+        <f t="shared" si="1"/>
+        <v>#copper#:950,</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="32"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:12">
+      <c r="M26" s="32"/>
+      <c r="N26" s="37"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:14">
       <c r="A27" s="10" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E27" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#Corundum3#:{ description: #Corundum3#,image: #https://img.wolftown.games/metarial/wood/Corundum3.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#copper2#:{ description: #copper2#,image: #https://img.wolftown.games/metarial/stone/copper2.png#,},</v>
       </c>
       <c r="F27" s="14">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="G27" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#Corundum3#:943,</v>
+        <f t="shared" si="1"/>
+        <v>#copper2#:951,</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="32"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:12">
+      <c r="M27" s="32"/>
+      <c r="N27" s="37"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:14">
       <c r="A28" s="10" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E28" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#fir wood#:{ description: #fir wood#,image: #https://img.wolftown.games/metarial/wood/fir wood.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#copper3#:{ description: #copper3#,image: #https://img.wolftown.games/metarial/stone/copper3.png#,},</v>
       </c>
       <c r="F28" s="14">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="G28" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#fir wood#:944,</v>
+        <f t="shared" si="1"/>
+        <v>#copper3#:952,</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="32"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:12">
+      <c r="M28" s="32"/>
+      <c r="N28" s="37"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:14">
       <c r="A29" s="10" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="E29" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#fir wood2#:{ description: #fir wood2#,image: #https://img.wolftown.games/metarial/wood/fir wood2.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#gold#:{ description: #gold#,image: #https://img.wolftown.games/metarial/stone/gold.png#,},</v>
       </c>
       <c r="F29" s="14">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="G29" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#fir wood2#:945,</v>
+        <f t="shared" si="1"/>
+        <v>#gold#:953,</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="32"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:12">
+      <c r="M29" s="32"/>
+      <c r="N29" s="37"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:14">
       <c r="A30" s="10" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#fir wood3#:{ description: #fir wood3#,image: #https://img.wolftown.games/metarial/wood/fir wood3.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#gold2#:{ description: #gold2#,image: #https://img.wolftown.games/metarial/stone/gold2.png#,},</v>
       </c>
       <c r="F30" s="14">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="G30" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#fir wood3#:946,</v>
+        <f t="shared" si="1"/>
+        <v>#gold2#:954,</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="32"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:12">
+      <c r="M30" s="32"/>
+      <c r="N30" s="37"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:14">
       <c r="A31" s="10" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E31" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#pine#:{ description: #pine#,image: #https://img.wolftown.games/metarial/wood/pine.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#gold3#:{ description: #gold3#,image: #https://img.wolftown.games/metarial/stone/gold3.png#,},</v>
       </c>
       <c r="F31" s="14">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="G31" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#pine#:947,</v>
+        <f t="shared" si="1"/>
+        <v>#gold3#:955,</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="32"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:12">
+      <c r="M31" s="32"/>
+      <c r="N31" s="37"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:14">
       <c r="A32" s="10" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>111</v>
+        <v>21</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="E32" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#pine2#:{ description: #pine2#,image: #https://img.wolftown.games/metarial/wood/pine2.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#iron#:{ description: #iron#,image: #https://img.wolftown.games/metarial/stone/iron.png#,},</v>
       </c>
       <c r="F32" s="14">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="G32" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#pine2#:948,</v>
+        <f t="shared" si="1"/>
+        <v>#iron#:956,</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="32"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:12">
+      <c r="M32" s="32"/>
+      <c r="N32" s="37"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:14">
       <c r="A33" s="10" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E33" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#pine3#:{ description: #pine3#,image: #https://img.wolftown.games/metarial/wood/pine3.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#iron2#:{ description: #iron2#,image: #https://img.wolftown.games/metarial/stone/iron2.png#,},</v>
       </c>
       <c r="F33" s="14">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="G33" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#pine3#:949,</v>
+        <f t="shared" si="1"/>
+        <v>#iron2#:957,</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="32"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:12">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="33"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:12">
+      <c r="M33" s="32"/>
+      <c r="N33" s="37"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:14">
+      <c r="A34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>#iron3#:{ description: #iron3#,image: #https://img.wolftown.games/metarial/stone/iron3.png#,},</v>
+      </c>
+      <c r="F34" s="14">
+        <v>958</v>
+      </c>
+      <c r="G34" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>#iron3#:958,</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="37"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:14">
       <c r="A35" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+        <v>99</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>#Red gold#:{ description: #Red gold#,image: #https://img.wolftown.games/metarial/stone/Red gold.png#,},</v>
+      </c>
+      <c r="F35" s="14">
+        <v>959</v>
+      </c>
+      <c r="G35" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>#Red gold#:959,</v>
+      </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="32"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:12">
+      <c r="M35" s="32"/>
+      <c r="N35" s="37"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:14">
       <c r="A36" s="10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E36" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#copper#:{ description: #copper#,image: #https://img.wolftown.games/metarial/stone/copper.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#Red gold2#:{ description: #Red gold2#,image: #https://img.wolftown.games/metarial/stone/Red gold2.png#,},</v>
       </c>
       <c r="F36" s="14">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="G36" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#copper#:950,</v>
+        <f t="shared" si="1"/>
+        <v>#Red gold2#:960,</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="32"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:12">
+      <c r="M36" s="32"/>
+      <c r="N36" s="37"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:14">
       <c r="A37" s="10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E37" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#copper2#:{ description: #copper2#,image: #https://img.wolftown.games/metarial/stone/copper2.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#Red gold3#:{ description: #Red gold3#,image: #https://img.wolftown.games/metarial/stone/Red gold3.png#,},</v>
       </c>
       <c r="F37" s="14">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="G37" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#copper2#:951,</v>
+        <f t="shared" si="1"/>
+        <v>#Red gold3#:961,</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="32"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:12">
+      <c r="M37" s="32"/>
+      <c r="N37" s="37"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:14">
       <c r="A38" s="10" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E38" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#copper3#:{ description: #copper3#,image: #https://img.wolftown.games/metarial/stone/copper3.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#titanium#:{ description: #titanium#,image: #https://img.wolftown.games/metarial/stone/titanium.png#,},</v>
       </c>
       <c r="F38" s="14">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="G38" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#copper3#:952,</v>
+        <f t="shared" si="1"/>
+        <v>#titanium#:962,</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
       <c r="L38" s="32"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:12">
+      <c r="M38" s="32"/>
+      <c r="N38" s="37"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:14">
       <c r="A39" s="10" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E39" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#gold#:{ description: #gold#,image: #https://img.wolftown.games/metarial/stone/gold.png#,},</v>
+        <f t="shared" si="0"/>
+        <v>#titanium2#:{ description: #titanium2#,image: #https://img.wolftown.games/metarial/stone/titanium2.png#,},</v>
       </c>
       <c r="F39" s="14">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="G39" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#gold#:953,</v>
+        <f t="shared" si="1"/>
+        <v>#titanium2#:963,</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="32"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:12">
-      <c r="A40" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#gold2#:{ description: #gold2#,image: #https://img.wolftown.games/metarial/stone/gold2.png#,},</v>
-      </c>
-      <c r="F40" s="14">
-        <v>954</v>
-      </c>
-      <c r="G40" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#gold2#:954,</v>
-      </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="32"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:12">
-      <c r="A41" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#gold3#:{ description: #gold3#,image: #https://img.wolftown.games/metarial/stone/gold3.png#,},</v>
-      </c>
-      <c r="F41" s="14">
-        <v>955</v>
-      </c>
-      <c r="G41" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#gold3#:955,</v>
-      </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="32"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:12">
-      <c r="A42" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#iron#:{ description: #iron#,image: #https://img.wolftown.games/metarial/stone/iron.png#,},</v>
-      </c>
-      <c r="F42" s="14">
-        <v>956</v>
-      </c>
-      <c r="G42" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#iron#:956,</v>
-      </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="32"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:12">
-      <c r="A43" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#iron2#:{ description: #iron2#,image: #https://img.wolftown.games/metarial/stone/iron2.png#,},</v>
-      </c>
-      <c r="F43" s="14">
-        <v>957</v>
-      </c>
-      <c r="G43" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#iron2#:957,</v>
-      </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="32"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:12">
-      <c r="A44" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#iron3#:{ description: #iron3#,image: #https://img.wolftown.games/metarial/stone/iron3.png#,},</v>
-      </c>
-      <c r="F44" s="14">
-        <v>958</v>
-      </c>
-      <c r="G44" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#iron3#:958,</v>
-      </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="32"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:12">
-      <c r="A45" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#Red gold#:{ description: #Red gold#,image: #https://img.wolftown.games/metarial/stone/Red gold.png#,},</v>
-      </c>
-      <c r="F45" s="14">
-        <v>959</v>
-      </c>
-      <c r="G45" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#Red gold#:959,</v>
-      </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="32"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:12">
-      <c r="A46" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#Red gold2#:{ description: #Red gold2#,image: #https://img.wolftown.games/metarial/stone/Red gold2.png#,},</v>
-      </c>
-      <c r="F46" s="14">
-        <v>960</v>
-      </c>
-      <c r="G46" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#Red gold2#:960,</v>
-      </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="32"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:12">
-      <c r="A47" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#Red gold3#:{ description: #Red gold3#,image: #https://img.wolftown.games/metarial/stone/Red gold3.png#,},</v>
-      </c>
-      <c r="F47" s="14">
-        <v>961</v>
-      </c>
-      <c r="G47" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#Red gold3#:961,</v>
-      </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="32"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:12">
-      <c r="A48" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#titanium#:{ description: #titanium#,image: #https://img.wolftown.games/metarial/stone/titanium.png#,},</v>
-      </c>
-      <c r="F48" s="14">
-        <v>962</v>
-      </c>
-      <c r="G48" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#titanium#:962,</v>
-      </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="32"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:12">
-      <c r="A49" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>#titanium2#:{ description: #titanium2#,image: #https://img.wolftown.games/metarial/stone/titanium2.png#,},</v>
-      </c>
-      <c r="F49" s="14">
-        <v>963</v>
-      </c>
-      <c r="G49" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>#titanium2#:963,</v>
-      </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="32"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:12">
-      <c r="A50" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" s="24" t="str">
-        <f t="shared" si="3"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="37"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:14">
+      <c r="A40" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="25" t="str">
+        <f t="shared" si="0"/>
         <v>#titanium3#:{ description: #titanium3#,image: #https://img.wolftown.games/metarial/stone/titanium3.png#,},</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F40" s="26">
         <v>964</v>
       </c>
-      <c r="G50" s="26" t="str">
-        <f t="shared" si="4"/>
+      <c r="G40" s="27" t="str">
+        <f t="shared" si="1"/>
         <v>#titanium3#:964,</v>
       </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="34"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="41"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D21" r:id="rId1" display="https://img.wolftown.games/metarial/wood/pine.png" tooltip="https://img.wolftown.games/metarial/wood/pine.png"/>
+    <hyperlink ref="D12" r:id="rId2" display="https://img.wolftown.games/metarial/wood/Chinese parasol.png"/>
+    <hyperlink ref="D26" r:id="rId3" display="https://img.wolftown.games/metarial/stone/copper.png"/>
+    <hyperlink ref="D22" r:id="rId4" display="https://img.wolftown.games/metarial/wood/pine2.png"/>
+    <hyperlink ref="D32" r:id="rId5" display="https://img.wolftown.games/metarial/stone/iron.png"/>
+    <hyperlink ref="D18" r:id="rId6" display="https://img.wolftown.games/metarial/wood/fir wood.png"/>
+    <hyperlink ref="D29" r:id="rId7" display="https://img.wolftown.games/metarial/stone/gold.png"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/材料表.xlsx
+++ b/材料表.xlsx
@@ -404,6 +404,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -433,14 +441,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,10 +1150,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1162,31 +1162,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1207,13 +1207,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1225,10 +1225,10 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1243,56 +1243,56 @@
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,9 +1302,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1314,15 +1311,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1332,22 +1320,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,9 +1338,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1368,15 +1347,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1400,12 +1370,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1769,10 +1733,10 @@
   <sheetPr/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1"/>
@@ -1805,8 +1769,8 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1816,50 +1780,50 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" customHeight="1" spans="1:14">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="5" t="str">
         <f>"#"&amp;B2&amp;"#"&amp;":{ description: "&amp;"#"&amp;C2&amp;"#,image: "&amp;"#"&amp;D2&amp;"#,},"</f>
         <v>#artillery#:{ description: #artillery#,image: #https://img.wolftown.games/weapon/artillery.png#,},</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <v>920</v>
       </c>
-      <c r="G2" s="9" t="str">
+      <c r="G2" s="4" t="str">
         <f>"#"&amp;B2&amp;"#:"&amp;F2&amp;","</f>
         <v>#artillery#:920,</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="4">
         <v>10</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="4">
         <v>4</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31" t="str">
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21" t="str">
         <f>"#"&amp;B2&amp;"#"&amp;":{name:#"&amp;B2&amp;"#, description: "&amp;"#"&amp;C2&amp;"#,ingredients: [{ item:#"&amp;H2&amp;"#,amount: new Decimal("&amp;J2&amp;"),
       },{ item:#"&amp;I2&amp;"#,amount: new Decimal("&amp;K2&amp;"),},], },"</f>
         <v>#artillery#:{name:#artillery#, description: #artillery#,ingredients: [{ item:#Chinese parasol#,amount: new Decimal(10),
@@ -1867,44 +1831,44 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13" t="str">
+      <c r="E3" s="8" t="str">
         <f>"#"&amp;B3&amp;"#"&amp;":{ description: "&amp;"#"&amp;C3&amp;"#,image: "&amp;"#"&amp;D3&amp;"#,},"</f>
         <v>#bartizan#:{ description: #bartizan#,image: #https://img.wolftown.games/weapon/bartizan.png#,},</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="7">
         <v>923</v>
       </c>
-      <c r="G3" s="15" t="str">
+      <c r="G3" s="7" t="str">
         <f>"#"&amp;B3&amp;"#:"&amp;F3&amp;","</f>
         <v>#bartizan#:923,</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="7">
         <v>5</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="7">
         <v>7</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33" t="str">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23" t="str">
         <f>"#"&amp;B3&amp;"#"&amp;":{name:#"&amp;B3&amp;"#, description: "&amp;"#"&amp;C3&amp;"#,ingredients: [{ item:#"&amp;H3&amp;"#,amount: new Decimal("&amp;J3&amp;"),
       },{ item:#"&amp;I3&amp;"#,amount: new Decimal("&amp;K3&amp;"),},], },"</f>
         <v>#bartizan#:{name:#bartizan#, description: #bartizan#,ingredients: [{ item:#Chinese parasol#,amount: new Decimal(5),
@@ -1912,44 +1876,44 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="13" t="str">
+      <c r="E4" s="8" t="str">
         <f>"#"&amp;B4&amp;"#"&amp;":{ description: "&amp;"#"&amp;C4&amp;"#,image: "&amp;"#"&amp;D4&amp;"#,},"</f>
         <v>#Catapult#:{ description: #Catapult#,image: #https://img.wolftown.games/weapon/Catapult.png#,},</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="7">
         <v>926</v>
       </c>
-      <c r="G4" s="15" t="str">
+      <c r="G4" s="7" t="str">
         <f>"#"&amp;B4&amp;"#:"&amp;F4&amp;","</f>
         <v>#Catapult#:926,</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="7">
         <v>8</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="7">
         <v>4</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="33" t="str">
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23" t="str">
         <f>"#"&amp;B4&amp;"#"&amp;":{name:#"&amp;B4&amp;"#, description: "&amp;"#"&amp;C4&amp;"#,ingredients: [{ item:#"&amp;H4&amp;"#,amount: new Decimal("&amp;J4&amp;"),
       },{ item:#"&amp;I4&amp;"#,amount: new Decimal("&amp;K4&amp;"),},], },"</f>
         <v>#Catapult#:{name:#Catapult#, description: #Catapult#,ingredients: [{ item:#Corundum#,amount: new Decimal(8),
@@ -1957,44 +1921,44 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:14">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="13" t="str">
+      <c r="E5" s="8" t="str">
         <f>"#"&amp;B5&amp;"#"&amp;":{ description: "&amp;"#"&amp;C5&amp;"#,image: "&amp;"#"&amp;D5&amp;"#,},"</f>
         <v>#Cyclone wheel car#:{ description: #Cyclone wheel car#,image: #https://img.wolftown.games/weapon/Cyclone wheel car.png#,},</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="7">
         <v>929</v>
       </c>
-      <c r="G5" s="15" t="str">
+      <c r="G5" s="7" t="str">
         <f>"#"&amp;B5&amp;"#:"&amp;F5&amp;","</f>
         <v>#Cyclone wheel car#:929,</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="7">
         <v>11</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="7">
         <v>7</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33" t="str">
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23" t="str">
         <f>"#"&amp;B5&amp;"#"&amp;":{name:#"&amp;B5&amp;"#, description: "&amp;"#"&amp;C5&amp;"#,ingredients: [{ item:#"&amp;H5&amp;"#,amount: new Decimal("&amp;J5&amp;"),
       },{ item:#"&amp;I5&amp;"#,amount: new Decimal("&amp;K5&amp;"),},], },"</f>
         <v>#Cyclone wheel car#:{name:#Cyclone wheel car#, description: #Cyclone wheel car#,ingredients: [{ item:#fir wood#,amount: new Decimal(11),
@@ -2002,44 +1966,44 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:14">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="8" t="str">
         <f>"#"&amp;B6&amp;"#"&amp;":{ description: "&amp;"#"&amp;C6&amp;"#,image: "&amp;"#"&amp;D6&amp;"#,},"</f>
         <v>#Rush Car#:{ description: #Rush Car#,image: #https://img.wolftown.games/weapon/Rush Car.png#,},</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="7">
         <v>932</v>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="7" t="str">
         <f>"#"&amp;B6&amp;"#:"&amp;F6&amp;","</f>
         <v>#Rush Car#:932,</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="7">
         <v>14</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="7">
         <v>10</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33" t="str">
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23" t="str">
         <f>"#"&amp;B6&amp;"#"&amp;":{name:#"&amp;B6&amp;"#, description: "&amp;"#"&amp;C6&amp;"#,ingredients: [{ item:#"&amp;H6&amp;"#,amount: new Decimal("&amp;J6&amp;"),
       },{ item:#"&amp;I6&amp;"#,amount: new Decimal("&amp;K6&amp;"),},], },"</f>
         <v>#Rush Car#:{name:#Rush Car#, description: #Rush Car#,ingredients: [{ item:#pine#,amount: new Decimal(14),
@@ -2047,1032 +2011,1032 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="35"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
     </row>
     <row r="8" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="5" t="str">
         <f t="shared" ref="E7:E40" si="0">"#"&amp;B9&amp;"#"&amp;":{ description: "&amp;"#"&amp;C9&amp;"#,image: "&amp;"#"&amp;D9&amp;"#,},"</f>
         <v>#Black sunken#:{ description: #Black sunken#,image: #https://img.wolftown.games/metarial/wood/Black sunken.png#,},</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <v>935</v>
       </c>
-      <c r="G9" s="9" t="str">
+      <c r="G9" s="4" t="str">
         <f t="shared" ref="G7:G40" si="1">"#"&amp;B9&amp;"#:"&amp;F9&amp;","</f>
         <v>#Black sunken#:935,</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="36"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="13" t="str">
+      <c r="E10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#Black sunken2#:{ description: #Black sunken2#,image: #https://img.wolftown.games/metarial/wood/Black sunken2.png#,},</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="7">
         <v>936</v>
       </c>
-      <c r="G10" s="15" t="str">
+      <c r="G10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#Black sunken2#:936,</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="37"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="13" t="str">
+      <c r="E11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#Black sunken3#:{ description: #Black sunken3#,image: #https://img.wolftown.games/metarial/wood/Black sunken3.png#,},</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="7">
         <v>937</v>
       </c>
-      <c r="G11" s="15" t="str">
+      <c r="G11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#Black sunken3#:937,</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="37"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="13" t="str">
+      <c r="E12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#Chinese parasol#:{ description: #Chinese parasol#,image: #https://img.wolftown.games/metarial/wood/Chinese parasol.png#,},</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="7">
         <v>938</v>
       </c>
-      <c r="G12" s="15" t="str">
+      <c r="G12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#Chinese parasol#:938,</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="37"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
     </row>
     <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="13" t="str">
+      <c r="E13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#Chinese parasol2#:{ description: #Chinese parasol2#,image: #https://img.wolftown.games/metarial/wood/Chinese parasol2.png#,},</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="7">
         <v>939</v>
       </c>
-      <c r="G13" s="15" t="str">
+      <c r="G13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#Chinese parasol2#:939,</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="37"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" customHeight="1" spans="1:14">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="13" t="str">
+      <c r="E14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#Chinese parasol3#:{ description: #Chinese parasol3#,image: #https://img.wolftown.games/metarial/wood/Chinese parasol3.png#,},</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="7">
         <v>940</v>
       </c>
-      <c r="G14" s="15" t="str">
+      <c r="G14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#Chinese parasol3#:940,</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="37"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" customHeight="1" spans="1:14">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="13" t="str">
+      <c r="E15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#Corundum#:{ description: #Corundum#,image: #https://img.wolftown.games/metarial/wood/Corundum.png#,},</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="7">
         <v>941</v>
       </c>
-      <c r="G15" s="15" t="str">
+      <c r="G15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#Corundum#:941,</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="37"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
     </row>
     <row r="16" customHeight="1" spans="1:14">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="13" t="str">
+      <c r="E16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#Corundum2#:{ description: #Corundum2#,image: #https://img.wolftown.games/metarial/wood/Corundum2.png#,},</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="7">
         <v>942</v>
       </c>
-      <c r="G16" s="15" t="str">
+      <c r="G16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#Corundum2#:942,</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="37"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" customHeight="1" spans="1:14">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="13" t="str">
+      <c r="E17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#Corundum3#:{ description: #Corundum3#,image: #https://img.wolftown.games/metarial/wood/Corundum3.png#,},</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="7">
         <v>943</v>
       </c>
-      <c r="G17" s="15" t="str">
+      <c r="G17" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#Corundum3#:943,</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="37"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
     </row>
     <row r="18" customHeight="1" spans="1:14">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="13" t="str">
+      <c r="E18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#fir wood#:{ description: #fir wood#,image: #https://img.wolftown.games/metarial/wood/fir wood.png#,},</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="7">
         <v>944</v>
       </c>
-      <c r="G18" s="15" t="str">
+      <c r="G18" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#fir wood#:944,</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="37"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" customHeight="1" spans="1:14">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="13" t="str">
+      <c r="E19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#fir wood2#:{ description: #fir wood2#,image: #https://img.wolftown.games/metarial/wood/fir wood2.png#,},</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="7">
         <v>945</v>
       </c>
-      <c r="G19" s="15" t="str">
+      <c r="G19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#fir wood2#:945,</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="37"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" customHeight="1" spans="1:14">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="13" t="str">
+      <c r="E20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#fir wood3#:{ description: #fir wood3#,image: #https://img.wolftown.games/metarial/wood/fir wood3.png#,},</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="7">
         <v>946</v>
       </c>
-      <c r="G20" s="15" t="str">
+      <c r="G20" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#fir wood3#:946,</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="37"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" customHeight="1" spans="1:14">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="13" t="str">
+      <c r="E21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#pine#:{ description: #pine#,image: #https://img.wolftown.games/metarial/wood/pine.png#,},</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="7">
         <v>947</v>
       </c>
-      <c r="G21" s="15" t="str">
+      <c r="G21" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#pine#:947,</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="37"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
     </row>
     <row r="22" customHeight="1" spans="1:14">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="13" t="str">
+      <c r="E22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#pine2#:{ description: #pine2#,image: #https://img.wolftown.games/metarial/wood/pine2.png#,},</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="7">
         <v>948</v>
       </c>
-      <c r="G22" s="15" t="str">
+      <c r="G22" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#pine2#:948,</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="37"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="13" t="str">
+      <c r="E23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#pine3#:{ description: #pine3#,image: #https://img.wolftown.games/metarial/wood/pine3.png#,},</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="7">
         <v>949</v>
       </c>
-      <c r="G23" s="15" t="str">
+      <c r="G23" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#pine3#:949,</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="37"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
     </row>
     <row r="24" customHeight="1" spans="1:14">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" customHeight="1" spans="1:14">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="37"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
     </row>
     <row r="26" customHeight="1" spans="1:14">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="13" t="str">
+      <c r="E26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#copper#:{ description: #copper#,image: #https://img.wolftown.games/metarial/stone/copper.png#,},</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="7">
         <v>950</v>
       </c>
-      <c r="G26" s="15" t="str">
+      <c r="G26" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#copper#:950,</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="37"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
     </row>
     <row r="27" customHeight="1" spans="1:14">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="13" t="str">
+      <c r="E27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#copper2#:{ description: #copper2#,image: #https://img.wolftown.games/metarial/stone/copper2.png#,},</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="7">
         <v>951</v>
       </c>
-      <c r="G27" s="15" t="str">
+      <c r="G27" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#copper2#:951,</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="37"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28" customHeight="1" spans="1:14">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="13" t="str">
+      <c r="E28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#copper3#:{ description: #copper3#,image: #https://img.wolftown.games/metarial/stone/copper3.png#,},</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="7">
         <v>952</v>
       </c>
-      <c r="G28" s="15" t="str">
+      <c r="G28" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#copper3#:952,</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="37"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" customHeight="1" spans="1:14">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="13" t="str">
+      <c r="E29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#gold#:{ description: #gold#,image: #https://img.wolftown.games/metarial/stone/gold.png#,},</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="7">
         <v>953</v>
       </c>
-      <c r="G29" s="15" t="str">
+      <c r="G29" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#gold#:953,</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="37"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="23"/>
     </row>
     <row r="30" customHeight="1" spans="1:14">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="13" t="str">
+      <c r="E30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#gold2#:{ description: #gold2#,image: #https://img.wolftown.games/metarial/stone/gold2.png#,},</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="7">
         <v>954</v>
       </c>
-      <c r="G30" s="15" t="str">
+      <c r="G30" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#gold2#:954,</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="37"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
     </row>
     <row r="31" customHeight="1" spans="1:14">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="13" t="str">
+      <c r="E31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#gold3#:{ description: #gold3#,image: #https://img.wolftown.games/metarial/stone/gold3.png#,},</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="7">
         <v>955</v>
       </c>
-      <c r="G31" s="15" t="str">
+      <c r="G31" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#gold3#:955,</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="37"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="23"/>
     </row>
     <row r="32" customHeight="1" spans="1:14">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="13" t="str">
+      <c r="E32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#iron#:{ description: #iron#,image: #https://img.wolftown.games/metarial/stone/iron.png#,},</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="7">
         <v>956</v>
       </c>
-      <c r="G32" s="15" t="str">
+      <c r="G32" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#iron#:956,</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="37"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="23"/>
     </row>
     <row r="33" customHeight="1" spans="1:14">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="13" t="str">
+      <c r="E33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#iron2#:{ description: #iron2#,image: #https://img.wolftown.games/metarial/stone/iron2.png#,},</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="7">
         <v>957</v>
       </c>
-      <c r="G33" s="15" t="str">
+      <c r="G33" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#iron2#:957,</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="37"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="23"/>
     </row>
     <row r="34" customHeight="1" spans="1:14">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="13" t="str">
+      <c r="E34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#iron3#:{ description: #iron3#,image: #https://img.wolftown.games/metarial/stone/iron3.png#,},</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="7">
         <v>958</v>
       </c>
-      <c r="G34" s="15" t="str">
+      <c r="G34" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#iron3#:958,</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="37"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="23"/>
     </row>
     <row r="35" customHeight="1" spans="1:14">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="13" t="str">
+      <c r="E35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#Red gold#:{ description: #Red gold#,image: #https://img.wolftown.games/metarial/stone/Red gold.png#,},</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="7">
         <v>959</v>
       </c>
-      <c r="G35" s="15" t="str">
+      <c r="G35" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#Red gold#:959,</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="37"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="23"/>
     </row>
     <row r="36" customHeight="1" spans="1:14">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="13" t="str">
+      <c r="E36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#Red gold2#:{ description: #Red gold2#,image: #https://img.wolftown.games/metarial/stone/Red gold2.png#,},</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="7">
         <v>960</v>
       </c>
-      <c r="G36" s="15" t="str">
+      <c r="G36" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#Red gold2#:960,</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="37"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="23"/>
     </row>
     <row r="37" customHeight="1" spans="1:14">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="13" t="str">
+      <c r="E37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#Red gold3#:{ description: #Red gold3#,image: #https://img.wolftown.games/metarial/stone/Red gold3.png#,},</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="7">
         <v>961</v>
       </c>
-      <c r="G37" s="15" t="str">
+      <c r="G37" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#Red gold3#:961,</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="37"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="23"/>
     </row>
     <row r="38" customHeight="1" spans="1:14">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="13" t="str">
+      <c r="E38" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#titanium#:{ description: #titanium#,image: #https://img.wolftown.games/metarial/stone/titanium.png#,},</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="7">
         <v>962</v>
       </c>
-      <c r="G38" s="15" t="str">
+      <c r="G38" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#titanium#:962,</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="37"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="23"/>
     </row>
     <row r="39" customHeight="1" spans="1:14">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="13" t="str">
+      <c r="E39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>#titanium2#:{ description: #titanium2#,image: #https://img.wolftown.games/metarial/stone/titanium2.png#,},</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="7">
         <v>963</v>
       </c>
-      <c r="G39" s="15" t="str">
+      <c r="G39" s="7" t="str">
         <f t="shared" si="1"/>
         <v>#titanium2#:963,</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="37"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="23"/>
     </row>
     <row r="40" customHeight="1" spans="1:14">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="25" t="str">
+      <c r="E40" s="17" t="str">
         <f t="shared" si="0"/>
         <v>#titanium3#:{ description: #titanium3#,image: #https://img.wolftown.games/metarial/stone/titanium3.png#,},</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="16">
         <v>964</v>
       </c>
-      <c r="G40" s="27" t="str">
+      <c r="G40" s="16" t="str">
         <f t="shared" si="1"/>
         <v>#titanium3#:964,</v>
       </c>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="41"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
